--- a/medicine/Pharmacie/Récepteur_nucléaire_orphelin_EER/Récepteur_nucléaire_orphelin_EER.xlsx
+++ b/medicine/Pharmacie/Récepteur_nucléaire_orphelin_EER/Récepteur_nucléaire_orphelin_EER.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_nucl%C3%A9aire_orphelin_EER</t>
+          <t>Récepteur_nucléaire_orphelin_EER</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le récepteur nucléaire orphelin EER (de l'anglais estrogen related receptor) est une protéine de la superfamille des récepteurs nucléaires, famille des récepteurs orphelins.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_nucl%C3%A9aire_orphelin_EER</t>
+          <t>Récepteur_nucléaire_orphelin_EER</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il existe trois isoformes connues :
 ERRα
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_nucl%C3%A9aire_orphelin_EER</t>
+          <t>Récepteur_nucléaire_orphelin_EER</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Similaires en termes de séquence au récepteur des œstrogènes (ER), les ERR ne lient cependant pas les œstrogènes et sont considérés actuellement comme des récepteurs orphelins. Agissant comme facteurs de transcription, ils possèdent leur propres éléments de réponse dans les promoteurs de leurs gènes cibles, qui sont distincts en termes de séquence de ceux du ER.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_nucl%C3%A9aire_orphelin_EER</t>
+          <t>Récepteur_nucléaire_orphelin_EER</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_nucl%C3%A9aire_orphelin_EER</t>
+          <t>Récepteur_nucléaire_orphelin_EER</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,6 +620,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
